--- a/Exams/Exam-02/Exam-02-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Exam-02-02/Program_CheckList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\Exam-02-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F65F8E6-4B50-4B33-8DE4-911C33A51E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Compila sin Errores</t>
   </si>
   <si>
-    <t>Cumple con Clean Architecture (Plural,Metodos CRUD, Manejoa los errores)</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>Cumple con Clean Architecture (Plural ,Metodos CRUD, Maneja los errores, Distribucion)</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="16">
         <f>SUM(C4:C5)</f>
@@ -549,7 +549,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
@@ -560,7 +560,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
@@ -571,7 +571,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="9">

--- a/Exams/Exam-02/Exam-02-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Exam-02-02/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\Exam-02-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F65F8E6-4B50-4B33-8DE4-911C33A51E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB06E5-72C5-49CE-8AFB-D8621AA549D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Exams/Exam-02/Exam-02-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Exam-02-02/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\Exam-02-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB06E5-72C5-49CE-8AFB-D8621AA549D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15E9435-87D4-4626-8401-1EBA65FE968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
